--- a/直播源汇总文档/高码和BPTV/肥羊高码和BPTV.xlsx
+++ b/直播源汇总文档/高码和BPTV/肥羊高码和BPTV.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">bptv!$A$1:$E$205</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">bptv!$A$1:$E$217</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">高码!$A$1:$E$157</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="160">
   <si>
     <t>湖南卫视</t>
   </si>
@@ -510,6 +510,10 @@
   </si>
   <si>
     <t>/bptv/10000100000000050000000003887500.m3u8</t>
+  </si>
+  <si>
+    <t>北京卫视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3795,7 +3799,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>69</v>
@@ -3803,16 +3807,16 @@
       <c r="C14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>71</v>
+      <c r="D14" t="s">
+        <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>69</v>
@@ -3820,16 +3824,16 @@
       <c r="C15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>82</v>
+      <c r="D15" t="s">
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>69</v>
@@ -3837,16 +3841,16 @@
       <c r="C16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>86</v>
+      <c r="D16" t="s">
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>69</v>
@@ -3854,16 +3858,16 @@
       <c r="C17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>85</v>
+      <c r="D17" t="s">
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>69</v>
@@ -3871,16 +3875,16 @@
       <c r="C18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>80</v>
+      <c r="D18" t="s">
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>69</v>
@@ -3888,16 +3892,16 @@
       <c r="C19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>78</v>
+      <c r="D19" t="s">
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>69</v>
@@ -3905,16 +3909,16 @@
       <c r="C20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>71</v>
+      <c r="D20" t="s">
+        <v>139</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>69</v>
@@ -3922,16 +3926,16 @@
       <c r="C21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>82</v>
+      <c r="D21" t="s">
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>69</v>
@@ -3939,16 +3943,16 @@
       <c r="C22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>86</v>
+      <c r="D22" t="s">
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>69</v>
@@ -3956,16 +3960,16 @@
       <c r="C23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>85</v>
+      <c r="D23" t="s">
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>69</v>
@@ -3973,16 +3977,16 @@
       <c r="C24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>80</v>
+      <c r="D24" t="s">
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>69</v>
@@ -3990,16 +3994,16 @@
       <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>78</v>
+      <c r="D25" t="s">
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>69</v>
@@ -4011,12 +4015,12 @@
         <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>69</v>
@@ -4028,12 +4032,12 @@
         <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>69</v>
@@ -4045,12 +4049,12 @@
         <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>69</v>
@@ -4062,12 +4066,12 @@
         <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>69</v>
@@ -4079,12 +4083,12 @@
         <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>69</v>
@@ -4096,12 +4100,12 @@
         <v>78</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>69</v>
@@ -4113,12 +4117,12 @@
         <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>69</v>
@@ -4130,12 +4134,12 @@
         <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>69</v>
@@ -4147,12 +4151,12 @@
         <v>86</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>69</v>
@@ -4164,12 +4168,12 @@
         <v>85</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>69</v>
@@ -4181,12 +4185,12 @@
         <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>69</v>
@@ -4198,12 +4202,12 @@
         <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>69</v>
@@ -4215,12 +4219,12 @@
         <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>69</v>
@@ -4232,12 +4236,12 @@
         <v>82</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>69</v>
@@ -4249,12 +4253,12 @@
         <v>86</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>69</v>
@@ -4266,12 +4270,12 @@
         <v>85</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>69</v>
@@ -4283,12 +4287,12 @@
         <v>80</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>69</v>
@@ -4300,12 +4304,12 @@
         <v>78</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>69</v>
@@ -4317,12 +4321,12 @@
         <v>71</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>69</v>
@@ -4334,12 +4338,12 @@
         <v>82</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>69</v>
@@ -4351,12 +4355,12 @@
         <v>86</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>69</v>
@@ -4368,12 +4372,12 @@
         <v>85</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>69</v>
@@ -4385,12 +4389,12 @@
         <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>69</v>
@@ -4402,12 +4406,12 @@
         <v>78</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>69</v>
@@ -4419,12 +4423,12 @@
         <v>71</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>69</v>
@@ -4436,12 +4440,12 @@
         <v>82</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>69</v>
@@ -4453,12 +4457,12 @@
         <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>69</v>
@@ -4470,12 +4474,12 @@
         <v>85</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>69</v>
@@ -4487,12 +4491,12 @@
         <v>80</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>69</v>
@@ -4504,12 +4508,12 @@
         <v>78</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>69</v>
@@ -4521,12 +4525,12 @@
         <v>71</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>69</v>
@@ -4538,12 +4542,12 @@
         <v>82</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>69</v>
@@ -4555,12 +4559,12 @@
         <v>86</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>69</v>
@@ -4572,12 +4576,12 @@
         <v>85</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>69</v>
@@ -4589,12 +4593,12 @@
         <v>80</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>69</v>
@@ -4606,12 +4610,12 @@
         <v>78</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>69</v>
@@ -4623,12 +4627,12 @@
         <v>71</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>69</v>
@@ -4640,12 +4644,12 @@
         <v>82</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>69</v>
@@ -4657,12 +4661,12 @@
         <v>86</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>69</v>
@@ -4674,12 +4678,12 @@
         <v>85</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>69</v>
@@ -4691,12 +4695,12 @@
         <v>80</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>69</v>
@@ -4708,12 +4712,12 @@
         <v>78</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>69</v>
@@ -4725,12 +4729,12 @@
         <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>69</v>
@@ -4742,12 +4746,12 @@
         <v>82</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>69</v>
@@ -4759,12 +4763,12 @@
         <v>86</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>69</v>
@@ -4776,12 +4780,12 @@
         <v>85</v>
       </c>
       <c r="E71" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>69</v>
@@ -4793,12 +4797,12 @@
         <v>80</v>
       </c>
       <c r="E72" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>69</v>
@@ -4810,12 +4814,12 @@
         <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>69</v>
@@ -4827,12 +4831,12 @@
         <v>71</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>69</v>
@@ -4844,12 +4848,12 @@
         <v>82</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>69</v>
@@ -4861,12 +4865,12 @@
         <v>86</v>
       </c>
       <c r="E76" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>69</v>
@@ -4878,12 +4882,12 @@
         <v>85</v>
       </c>
       <c r="E77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>69</v>
@@ -4895,12 +4899,12 @@
         <v>80</v>
       </c>
       <c r="E78" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>69</v>
@@ -4912,12 +4916,12 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>69</v>
@@ -4929,12 +4933,12 @@
         <v>71</v>
       </c>
       <c r="E80" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>69</v>
@@ -4946,12 +4950,12 @@
         <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>69</v>
@@ -4963,12 +4967,12 @@
         <v>86</v>
       </c>
       <c r="E82" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>69</v>
@@ -4980,12 +4984,12 @@
         <v>85</v>
       </c>
       <c r="E83" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>69</v>
@@ -4997,12 +5001,12 @@
         <v>80</v>
       </c>
       <c r="E84" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>69</v>
@@ -5014,12 +5018,12 @@
         <v>78</v>
       </c>
       <c r="E85" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>69</v>
@@ -5031,12 +5035,12 @@
         <v>71</v>
       </c>
       <c r="E86" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>69</v>
@@ -5048,12 +5052,12 @@
         <v>82</v>
       </c>
       <c r="E87" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>69</v>
@@ -5065,12 +5069,12 @@
         <v>86</v>
       </c>
       <c r="E88" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>69</v>
@@ -5082,12 +5086,12 @@
         <v>85</v>
       </c>
       <c r="E89" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>69</v>
@@ -5099,12 +5103,12 @@
         <v>80</v>
       </c>
       <c r="E90" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>69</v>
@@ -5116,12 +5120,12 @@
         <v>78</v>
       </c>
       <c r="E91" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>69</v>
@@ -5133,12 +5137,12 @@
         <v>71</v>
       </c>
       <c r="E92" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>69</v>
@@ -5150,12 +5154,12 @@
         <v>82</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>69</v>
@@ -5167,12 +5171,12 @@
         <v>86</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>69</v>
@@ -5184,12 +5188,12 @@
         <v>85</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>69</v>
@@ -5201,12 +5205,12 @@
         <v>80</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>69</v>
@@ -5218,12 +5222,12 @@
         <v>78</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>69</v>
@@ -5235,12 +5239,12 @@
         <v>71</v>
       </c>
       <c r="E98" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>69</v>
@@ -5252,12 +5256,12 @@
         <v>82</v>
       </c>
       <c r="E99" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>69</v>
@@ -5269,12 +5273,12 @@
         <v>86</v>
       </c>
       <c r="E100" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>69</v>
@@ -5286,12 +5290,12 @@
         <v>85</v>
       </c>
       <c r="E101" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>69</v>
@@ -5303,12 +5307,12 @@
         <v>80</v>
       </c>
       <c r="E102" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>69</v>
@@ -5320,12 +5324,12 @@
         <v>78</v>
       </c>
       <c r="E103" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>69</v>
@@ -5337,12 +5341,12 @@
         <v>71</v>
       </c>
       <c r="E104" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>69</v>
@@ -5354,12 +5358,12 @@
         <v>82</v>
       </c>
       <c r="E105" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>69</v>
@@ -5371,12 +5375,12 @@
         <v>86</v>
       </c>
       <c r="E106" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>69</v>
@@ -5388,12 +5392,12 @@
         <v>85</v>
       </c>
       <c r="E107" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>69</v>
@@ -5405,12 +5409,12 @@
         <v>80</v>
       </c>
       <c r="E108" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>69</v>
@@ -5422,12 +5426,12 @@
         <v>78</v>
       </c>
       <c r="E109" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>69</v>
@@ -5439,12 +5443,12 @@
         <v>71</v>
       </c>
       <c r="E110" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>69</v>
@@ -5456,12 +5460,12 @@
         <v>82</v>
       </c>
       <c r="E111" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>69</v>
@@ -5473,12 +5477,12 @@
         <v>86</v>
       </c>
       <c r="E112" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>69</v>
@@ -5490,12 +5494,12 @@
         <v>85</v>
       </c>
       <c r="E113" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>69</v>
@@ -5507,12 +5511,12 @@
         <v>80</v>
       </c>
       <c r="E114" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>69</v>
@@ -5524,12 +5528,12 @@
         <v>78</v>
       </c>
       <c r="E115" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>69</v>
@@ -5541,12 +5545,12 @@
         <v>71</v>
       </c>
       <c r="E116" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>69</v>
@@ -5558,12 +5562,12 @@
         <v>82</v>
       </c>
       <c r="E117" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>69</v>
@@ -5575,12 +5579,12 @@
         <v>86</v>
       </c>
       <c r="E118" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>69</v>
@@ -5592,12 +5596,12 @@
         <v>85</v>
       </c>
       <c r="E119" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>69</v>
@@ -5609,12 +5613,12 @@
         <v>80</v>
       </c>
       <c r="E120" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>69</v>
@@ -5626,12 +5630,12 @@
         <v>78</v>
       </c>
       <c r="E121" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>69</v>
@@ -5643,12 +5647,12 @@
         <v>71</v>
       </c>
       <c r="E122" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>69</v>
@@ -5660,12 +5664,12 @@
         <v>82</v>
       </c>
       <c r="E123" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>69</v>
@@ -5677,12 +5681,12 @@
         <v>86</v>
       </c>
       <c r="E124" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>69</v>
@@ -5694,12 +5698,12 @@
         <v>85</v>
       </c>
       <c r="E125" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>69</v>
@@ -5711,12 +5715,12 @@
         <v>80</v>
       </c>
       <c r="E126" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>69</v>
@@ -5728,12 +5732,12 @@
         <v>78</v>
       </c>
       <c r="E127" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>69</v>
@@ -5745,12 +5749,12 @@
         <v>71</v>
       </c>
       <c r="E128" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>69</v>
@@ -5762,12 +5766,12 @@
         <v>82</v>
       </c>
       <c r="E129" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>69</v>
@@ -5779,12 +5783,12 @@
         <v>86</v>
       </c>
       <c r="E130" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>69</v>
@@ -5796,12 +5800,12 @@
         <v>85</v>
       </c>
       <c r="E131" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>69</v>
@@ -5813,12 +5817,12 @@
         <v>80</v>
       </c>
       <c r="E132" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>69</v>
@@ -5830,12 +5834,12 @@
         <v>78</v>
       </c>
       <c r="E133" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>69</v>
@@ -5847,12 +5851,12 @@
         <v>71</v>
       </c>
       <c r="E134" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>69</v>
@@ -5864,12 +5868,12 @@
         <v>82</v>
       </c>
       <c r="E135" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>69</v>
@@ -5881,12 +5885,12 @@
         <v>86</v>
       </c>
       <c r="E136" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>69</v>
@@ -5898,12 +5902,12 @@
         <v>85</v>
       </c>
       <c r="E137" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>69</v>
@@ -5915,12 +5919,12 @@
         <v>80</v>
       </c>
       <c r="E138" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>69</v>
@@ -5932,12 +5936,12 @@
         <v>78</v>
       </c>
       <c r="E139" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>69</v>
@@ -5949,12 +5953,12 @@
         <v>71</v>
       </c>
       <c r="E140" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>69</v>
@@ -5966,12 +5970,12 @@
         <v>82</v>
       </c>
       <c r="E141" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>69</v>
@@ -5983,12 +5987,12 @@
         <v>86</v>
       </c>
       <c r="E142" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>69</v>
@@ -6000,12 +6004,12 @@
         <v>85</v>
       </c>
       <c r="E143" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>69</v>
@@ -6017,12 +6021,12 @@
         <v>80</v>
       </c>
       <c r="E144" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>69</v>
@@ -6034,12 +6038,12 @@
         <v>78</v>
       </c>
       <c r="E145" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>69</v>
@@ -6051,12 +6055,12 @@
         <v>71</v>
       </c>
       <c r="E146" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>69</v>
@@ -6068,12 +6072,12 @@
         <v>82</v>
       </c>
       <c r="E147" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>69</v>
@@ -6085,12 +6089,12 @@
         <v>86</v>
       </c>
       <c r="E148" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>69</v>
@@ -6102,12 +6106,12 @@
         <v>85</v>
       </c>
       <c r="E149" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>69</v>
@@ -6119,12 +6123,12 @@
         <v>80</v>
       </c>
       <c r="E150" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>69</v>
@@ -6136,12 +6140,12 @@
         <v>78</v>
       </c>
       <c r="E151" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>69</v>
@@ -6153,12 +6157,12 @@
         <v>71</v>
       </c>
       <c r="E152" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>69</v>
@@ -6170,12 +6174,12 @@
         <v>82</v>
       </c>
       <c r="E153" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>69</v>
@@ -6187,12 +6191,12 @@
         <v>86</v>
       </c>
       <c r="E154" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>69</v>
@@ -6204,12 +6208,12 @@
         <v>85</v>
       </c>
       <c r="E155" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>69</v>
@@ -6221,12 +6225,12 @@
         <v>80</v>
       </c>
       <c r="E156" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>69</v>
@@ -6238,12 +6242,12 @@
         <v>78</v>
       </c>
       <c r="E157" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>69</v>
@@ -6255,12 +6259,12 @@
         <v>71</v>
       </c>
       <c r="E158" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>69</v>
@@ -6272,12 +6276,12 @@
         <v>82</v>
       </c>
       <c r="E159" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>69</v>
@@ -6289,12 +6293,12 @@
         <v>86</v>
       </c>
       <c r="E160" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>69</v>
@@ -6306,12 +6310,12 @@
         <v>85</v>
       </c>
       <c r="E161" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>69</v>
@@ -6323,12 +6327,12 @@
         <v>80</v>
       </c>
       <c r="E162" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>69</v>
@@ -6340,12 +6344,12 @@
         <v>78</v>
       </c>
       <c r="E163" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>69</v>
@@ -6357,12 +6361,12 @@
         <v>71</v>
       </c>
       <c r="E164" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>69</v>
@@ -6374,12 +6378,12 @@
         <v>82</v>
       </c>
       <c r="E165" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>69</v>
@@ -6391,12 +6395,12 @@
         <v>86</v>
       </c>
       <c r="E166" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>69</v>
@@ -6408,12 +6412,12 @@
         <v>85</v>
       </c>
       <c r="E167" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>69</v>
@@ -6425,12 +6429,12 @@
         <v>80</v>
       </c>
       <c r="E168" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>69</v>
@@ -6442,12 +6446,12 @@
         <v>78</v>
       </c>
       <c r="E169" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>69</v>
@@ -6459,12 +6463,12 @@
         <v>71</v>
       </c>
       <c r="E170" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>69</v>
@@ -6476,12 +6480,12 @@
         <v>82</v>
       </c>
       <c r="E171" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>69</v>
@@ -6493,12 +6497,12 @@
         <v>86</v>
       </c>
       <c r="E172" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>69</v>
@@ -6510,12 +6514,12 @@
         <v>85</v>
       </c>
       <c r="E173" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>69</v>
@@ -6527,12 +6531,12 @@
         <v>80</v>
       </c>
       <c r="E174" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>69</v>
@@ -6544,12 +6548,12 @@
         <v>78</v>
       </c>
       <c r="E175" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>69</v>
@@ -6561,12 +6565,12 @@
         <v>71</v>
       </c>
       <c r="E176" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>69</v>
@@ -6578,12 +6582,12 @@
         <v>82</v>
       </c>
       <c r="E177" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>69</v>
@@ -6595,12 +6599,12 @@
         <v>86</v>
       </c>
       <c r="E178" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>69</v>
@@ -6612,12 +6616,12 @@
         <v>85</v>
       </c>
       <c r="E179" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>69</v>
@@ -6629,12 +6633,12 @@
         <v>80</v>
       </c>
       <c r="E180" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>69</v>
@@ -6646,12 +6650,12 @@
         <v>78</v>
       </c>
       <c r="E181" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>69</v>
@@ -6663,12 +6667,12 @@
         <v>71</v>
       </c>
       <c r="E182" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>69</v>
@@ -6680,12 +6684,12 @@
         <v>82</v>
       </c>
       <c r="E183" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>69</v>
@@ -6697,12 +6701,12 @@
         <v>86</v>
       </c>
       <c r="E184" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>69</v>
@@ -6714,12 +6718,12 @@
         <v>85</v>
       </c>
       <c r="E185" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>69</v>
@@ -6731,12 +6735,12 @@
         <v>80</v>
       </c>
       <c r="E186" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>69</v>
@@ -6748,12 +6752,12 @@
         <v>78</v>
       </c>
       <c r="E187" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>69</v>
@@ -6765,12 +6769,12 @@
         <v>71</v>
       </c>
       <c r="E188" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>69</v>
@@ -6782,12 +6786,12 @@
         <v>82</v>
       </c>
       <c r="E189" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>69</v>
@@ -6799,12 +6803,12 @@
         <v>86</v>
       </c>
       <c r="E190" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>69</v>
@@ -6816,12 +6820,12 @@
         <v>85</v>
       </c>
       <c r="E191" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>69</v>
@@ -6833,12 +6837,12 @@
         <v>80</v>
       </c>
       <c r="E192" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>69</v>
@@ -6850,12 +6854,12 @@
         <v>78</v>
       </c>
       <c r="E193" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>69</v>
@@ -6867,12 +6871,12 @@
         <v>71</v>
       </c>
       <c r="E194" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>69</v>
@@ -6884,12 +6888,12 @@
         <v>82</v>
       </c>
       <c r="E195" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>69</v>
@@ -6901,12 +6905,12 @@
         <v>86</v>
       </c>
       <c r="E196" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>69</v>
@@ -6918,12 +6922,12 @@
         <v>85</v>
       </c>
       <c r="E197" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>69</v>
@@ -6935,12 +6939,12 @@
         <v>80</v>
       </c>
       <c r="E198" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>69</v>
@@ -6952,12 +6956,12 @@
         <v>78</v>
       </c>
       <c r="E199" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>69</v>
@@ -6969,12 +6973,12 @@
         <v>71</v>
       </c>
       <c r="E200" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>69</v>
@@ -6986,12 +6990,12 @@
         <v>82</v>
       </c>
       <c r="E201" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>69</v>
@@ -7003,12 +7007,12 @@
         <v>86</v>
       </c>
       <c r="E202" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>69</v>
@@ -7020,12 +7024,12 @@
         <v>85</v>
       </c>
       <c r="E203" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>69</v>
@@ -7037,12 +7041,12 @@
         <v>80</v>
       </c>
       <c r="E204" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>69</v>
@@ -7054,12 +7058,12 @@
         <v>78</v>
       </c>
       <c r="E205" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>69</v>
@@ -7067,16 +7071,16 @@
       <c r="C206" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D206" t="s">
-        <v>139</v>
+      <c r="D206" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E206" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>69</v>
@@ -7084,16 +7088,16 @@
       <c r="C207" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D207" t="s">
-        <v>81</v>
+      <c r="D207" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E207" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>69</v>
@@ -7101,16 +7105,16 @@
       <c r="C208" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D208" t="s">
-        <v>83</v>
+      <c r="D208" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="E208" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>69</v>
@@ -7118,16 +7122,16 @@
       <c r="C209" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D209" t="s">
-        <v>84</v>
+      <c r="D209" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="E209" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>69</v>
@@ -7135,16 +7139,16 @@
       <c r="C210" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D210" t="s">
-        <v>79</v>
+      <c r="D210" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E210" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>69</v>
@@ -7152,16 +7156,16 @@
       <c r="C211" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D211" t="s">
-        <v>77</v>
+      <c r="D211" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E211" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>69</v>
@@ -7169,16 +7173,16 @@
       <c r="C212" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D212" t="s">
-        <v>139</v>
+      <c r="D212" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E212" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>69</v>
@@ -7186,16 +7190,16 @@
       <c r="C213" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D213" t="s">
-        <v>81</v>
+      <c r="D213" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E213" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>69</v>
@@ -7203,16 +7207,16 @@
       <c r="C214" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D214" t="s">
-        <v>83</v>
+      <c r="D214" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="E214" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>69</v>
@@ -7220,16 +7224,16 @@
       <c r="C215" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D215" t="s">
-        <v>84</v>
+      <c r="D215" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="E215" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>69</v>
@@ -7237,16 +7241,16 @@
       <c r="C216" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D216" t="s">
-        <v>79</v>
+      <c r="D216" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E216" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>69</v>
@@ -7254,11 +7258,11 @@
       <c r="C217" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D217" t="s">
-        <v>77</v>
+      <c r="D217" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E217" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.15">
@@ -7275,7 +7279,7 @@
         <v>139</v>
       </c>
       <c r="E218" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.15">
@@ -7292,7 +7296,7 @@
         <v>81</v>
       </c>
       <c r="E219" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.15">
@@ -7309,7 +7313,7 @@
         <v>83</v>
       </c>
       <c r="E220" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.15">
@@ -7326,7 +7330,7 @@
         <v>84</v>
       </c>
       <c r="E221" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.15">
@@ -7343,7 +7347,7 @@
         <v>79</v>
       </c>
       <c r="E222" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.15">
@@ -7360,7 +7364,7 @@
         <v>77</v>
       </c>
       <c r="E223" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.15">
@@ -8180,7 +8184,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E205"/>
+  <autoFilter ref="A1:E217"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/直播源汇总文档/高码和BPTV/肥羊高码和BPTV.xlsx
+++ b/直播源汇总文档/高码和BPTV/肥羊高码和BPTV.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">bptv!$A$1:$E$217</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">bptv!$A$1:$E$223</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">高码!$A$1:$E$157</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="167">
   <si>
     <t>湖南卫视</t>
   </si>
@@ -392,9 +392,6 @@
     <t>/gaoma/cctv5p.m3u8</t>
   </si>
   <si>
-    <t>/gaoma/cctv6.m3u8</t>
-  </si>
-  <si>
     <t>/gaoma/cctv7.m3u8</t>
   </si>
   <si>
@@ -514,6 +511,36 @@
   <si>
     <t>北京卫视</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/gaoma/cctv4k16.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bptv/10000100000000050000000003870749.m3u8</t>
+  </si>
+  <si>
+    <t>北京卡酷少儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bptv/10000100000000050000000003904597.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bptv/10000100000000050000000004796942.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南金鹰卡通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东嘉佳卡通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bptv/10000100000000050000000003887459.m3u8</t>
   </si>
 </sst>
 </file>
@@ -913,7 +940,7 @@
         <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
         <v>113</v>
@@ -1015,7 +1042,7 @@
         <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
         <v>114</v>
@@ -1117,7 +1144,7 @@
         <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
         <v>115</v>
@@ -1219,7 +1246,7 @@
         <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
         <v>116</v>
@@ -1321,7 +1348,7 @@
         <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
         <v>117</v>
@@ -1423,7 +1450,7 @@
         <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
         <v>118</v>
@@ -1516,7 +1543,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>69</v>
@@ -1525,7 +1552,7 @@
         <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
         <v>119</v>
@@ -1533,7 +1560,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>69</v>
@@ -1550,7 +1577,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>69</v>
@@ -1567,7 +1594,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>69</v>
@@ -1584,7 +1611,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>69</v>
@@ -1601,7 +1628,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>69</v>
@@ -1618,7 +1645,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>69</v>
@@ -1627,7 +1654,7 @@
         <v>70</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E44" t="s">
         <v>120</v>
@@ -1635,7 +1662,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>69</v>
@@ -1652,7 +1679,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>69</v>
@@ -1669,7 +1696,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>69</v>
@@ -1686,7 +1713,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>69</v>
@@ -1703,7 +1730,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>69</v>
@@ -1720,7 +1747,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>69</v>
@@ -1729,7 +1756,7 @@
         <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E50" t="s">
         <v>121</v>
@@ -1737,7 +1764,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>69</v>
@@ -1754,7 +1781,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>69</v>
@@ -1771,7 +1798,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>69</v>
@@ -1788,7 +1815,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>69</v>
@@ -1805,7 +1832,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>69</v>
@@ -1822,7 +1849,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>69</v>
@@ -1831,7 +1858,7 @@
         <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E56" t="s">
         <v>122</v>
@@ -1839,7 +1866,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>69</v>
@@ -1856,7 +1883,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>69</v>
@@ -1873,7 +1900,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>69</v>
@@ -1890,7 +1917,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>69</v>
@@ -1907,7 +1934,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>69</v>
@@ -1924,7 +1951,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>69</v>
@@ -1933,7 +1960,7 @@
         <v>70</v>
       </c>
       <c r="D62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E62" t="s">
         <v>123</v>
@@ -1941,7 +1968,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>69</v>
@@ -1958,7 +1985,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>69</v>
@@ -1975,7 +2002,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>69</v>
@@ -1992,7 +2019,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>69</v>
@@ -2009,7 +2036,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>69</v>
@@ -2026,7 +2053,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>69</v>
@@ -2035,7 +2062,7 @@
         <v>70</v>
       </c>
       <c r="D68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E68" t="s">
         <v>124</v>
@@ -2043,7 +2070,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>69</v>
@@ -2060,7 +2087,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>69</v>
@@ -2077,7 +2104,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>69</v>
@@ -2094,7 +2121,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>69</v>
@@ -2111,7 +2138,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>69</v>
@@ -2128,7 +2155,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>69</v>
@@ -2137,7 +2164,7 @@
         <v>70</v>
       </c>
       <c r="D74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E74" t="s">
         <v>125</v>
@@ -2145,7 +2172,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>69</v>
@@ -2162,7 +2189,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>69</v>
@@ -2179,7 +2206,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>69</v>
@@ -2196,7 +2223,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>69</v>
@@ -2213,7 +2240,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>69</v>
@@ -2230,7 +2257,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>69</v>
@@ -2239,7 +2266,7 @@
         <v>70</v>
       </c>
       <c r="D80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2247,7 +2274,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>69</v>
@@ -2264,7 +2291,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>69</v>
@@ -2281,7 +2308,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>69</v>
@@ -2298,7 +2325,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>69</v>
@@ -2315,7 +2342,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>69</v>
@@ -2332,7 +2359,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>69</v>
@@ -2341,7 +2368,7 @@
         <v>70</v>
       </c>
       <c r="D86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E86" t="s">
         <v>127</v>
@@ -2349,7 +2376,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>69</v>
@@ -2366,7 +2393,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>69</v>
@@ -2383,7 +2410,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>69</v>
@@ -2400,7 +2427,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>69</v>
@@ -2417,7 +2444,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>69</v>
@@ -2434,7 +2461,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>69</v>
@@ -2443,7 +2470,7 @@
         <v>70</v>
       </c>
       <c r="D92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E92" t="s">
         <v>128</v>
@@ -2451,7 +2478,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>69</v>
@@ -2468,7 +2495,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>69</v>
@@ -2485,7 +2512,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>69</v>
@@ -2502,7 +2529,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>69</v>
@@ -2519,7 +2546,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>69</v>
@@ -2545,10 +2572,10 @@
         <v>70</v>
       </c>
       <c r="D98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E98" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
@@ -2565,7 +2592,7 @@
         <v>81</v>
       </c>
       <c r="E99" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
@@ -2582,7 +2609,7 @@
         <v>83</v>
       </c>
       <c r="E100" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
@@ -2599,7 +2626,7 @@
         <v>84</v>
       </c>
       <c r="E101" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
@@ -2616,7 +2643,7 @@
         <v>79</v>
       </c>
       <c r="E102" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
@@ -2633,7 +2660,7 @@
         <v>77</v>
       </c>
       <c r="E103" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
@@ -2647,10 +2674,10 @@
         <v>70</v>
       </c>
       <c r="D104" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E104" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
@@ -2667,7 +2694,7 @@
         <v>81</v>
       </c>
       <c r="E105" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
@@ -2684,7 +2711,7 @@
         <v>83</v>
       </c>
       <c r="E106" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
@@ -2701,7 +2728,7 @@
         <v>84</v>
       </c>
       <c r="E107" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
@@ -2718,7 +2745,7 @@
         <v>79</v>
       </c>
       <c r="E108" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
@@ -2735,7 +2762,7 @@
         <v>77</v>
       </c>
       <c r="E109" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
@@ -2749,10 +2776,10 @@
         <v>70</v>
       </c>
       <c r="D110" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
@@ -2769,7 +2796,7 @@
         <v>81</v>
       </c>
       <c r="E111" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
@@ -2786,7 +2813,7 @@
         <v>83</v>
       </c>
       <c r="E112" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
@@ -2803,7 +2830,7 @@
         <v>84</v>
       </c>
       <c r="E113" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
@@ -2820,7 +2847,7 @@
         <v>79</v>
       </c>
       <c r="E114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
@@ -2837,7 +2864,7 @@
         <v>77</v>
       </c>
       <c r="E115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
@@ -2851,10 +2878,10 @@
         <v>70</v>
       </c>
       <c r="D116" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
@@ -2871,7 +2898,7 @@
         <v>81</v>
       </c>
       <c r="E117" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
@@ -2888,7 +2915,7 @@
         <v>83</v>
       </c>
       <c r="E118" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
@@ -2905,7 +2932,7 @@
         <v>84</v>
       </c>
       <c r="E119" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
@@ -2922,7 +2949,7 @@
         <v>79</v>
       </c>
       <c r="E120" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
@@ -2939,7 +2966,7 @@
         <v>77</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
@@ -2953,10 +2980,10 @@
         <v>70</v>
       </c>
       <c r="D122" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E122" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
@@ -2973,7 +3000,7 @@
         <v>81</v>
       </c>
       <c r="E123" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
@@ -2990,7 +3017,7 @@
         <v>83</v>
       </c>
       <c r="E124" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
@@ -3007,7 +3034,7 @@
         <v>84</v>
       </c>
       <c r="E125" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
@@ -3024,7 +3051,7 @@
         <v>79</v>
       </c>
       <c r="E126" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
@@ -3041,7 +3068,7 @@
         <v>77</v>
       </c>
       <c r="E127" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
@@ -3055,10 +3082,10 @@
         <v>70</v>
       </c>
       <c r="D128" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
@@ -3075,7 +3102,7 @@
         <v>81</v>
       </c>
       <c r="E129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
@@ -3092,7 +3119,7 @@
         <v>83</v>
       </c>
       <c r="E130" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
@@ -3109,7 +3136,7 @@
         <v>84</v>
       </c>
       <c r="E131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
@@ -3126,7 +3153,7 @@
         <v>79</v>
       </c>
       <c r="E132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.15">
@@ -3143,7 +3170,7 @@
         <v>77</v>
       </c>
       <c r="E133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.15">
@@ -3157,10 +3184,10 @@
         <v>70</v>
       </c>
       <c r="D134" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
@@ -3177,7 +3204,7 @@
         <v>81</v>
       </c>
       <c r="E135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.15">
@@ -3194,7 +3221,7 @@
         <v>83</v>
       </c>
       <c r="E136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
@@ -3211,7 +3238,7 @@
         <v>84</v>
       </c>
       <c r="E137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.15">
@@ -3228,7 +3255,7 @@
         <v>79</v>
       </c>
       <c r="E138" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.15">
@@ -3245,7 +3272,7 @@
         <v>77</v>
       </c>
       <c r="E139" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
@@ -3259,10 +3286,10 @@
         <v>70</v>
       </c>
       <c r="D140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E140" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
@@ -3279,7 +3306,7 @@
         <v>81</v>
       </c>
       <c r="E141" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.15">
@@ -3296,7 +3323,7 @@
         <v>83</v>
       </c>
       <c r="E142" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
@@ -3313,7 +3340,7 @@
         <v>84</v>
       </c>
       <c r="E143" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.15">
@@ -3330,7 +3357,7 @@
         <v>79</v>
       </c>
       <c r="E144" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.15">
@@ -3347,7 +3374,7 @@
         <v>77</v>
       </c>
       <c r="E145" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
@@ -3361,10 +3388,10 @@
         <v>70</v>
       </c>
       <c r="D146" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E146" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
@@ -3381,7 +3408,7 @@
         <v>81</v>
       </c>
       <c r="E147" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.15">
@@ -3398,7 +3425,7 @@
         <v>83</v>
       </c>
       <c r="E148" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
@@ -3415,7 +3442,7 @@
         <v>84</v>
       </c>
       <c r="E149" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
@@ -3432,7 +3459,7 @@
         <v>79</v>
       </c>
       <c r="E150" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
@@ -3449,7 +3476,7 @@
         <v>77</v>
       </c>
       <c r="E151" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
@@ -3463,10 +3490,10 @@
         <v>70</v>
       </c>
       <c r="D152" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E152" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
@@ -3483,7 +3510,7 @@
         <v>81</v>
       </c>
       <c r="E153" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
@@ -3500,7 +3527,7 @@
         <v>83</v>
       </c>
       <c r="E154" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
@@ -3517,7 +3544,7 @@
         <v>84</v>
       </c>
       <c r="E155" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
@@ -3534,7 +3561,7 @@
         <v>79</v>
       </c>
       <c r="E156" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
@@ -3551,7 +3578,7 @@
         <v>77</v>
       </c>
       <c r="E157" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3563,7 +3590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E271"/>
+  <dimension ref="A1:E295"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3595,7 +3622,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>69</v>
@@ -3606,13 +3633,13 @@
       <c r="D2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
+      <c r="E2" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>69</v>
@@ -3623,13 +3650,13 @@
       <c r="D3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
+      <c r="E3" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>69</v>
@@ -3640,13 +3667,13 @@
       <c r="D4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
+      <c r="E4" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>69</v>
@@ -3657,13 +3684,13 @@
       <c r="D5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
+      <c r="E5" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>69</v>
@@ -3674,13 +3701,13 @@
       <c r="D6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
+      <c r="E6" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>69</v>
@@ -3691,13 +3718,13 @@
       <c r="D7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E7" t="s">
-        <v>19</v>
+      <c r="E7" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>69</v>
@@ -3709,12 +3736,12 @@
         <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>69</v>
@@ -3726,12 +3753,12 @@
         <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>69</v>
@@ -3743,12 +3770,12 @@
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>69</v>
@@ -3760,12 +3787,12 @@
         <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>69</v>
@@ -3777,12 +3804,12 @@
         <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>69</v>
@@ -3794,12 +3821,12 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>69</v>
@@ -3807,16 +3834,16 @@
       <c r="C14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D14" t="s">
-        <v>139</v>
+      <c r="D14" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>69</v>
@@ -3824,16 +3851,16 @@
       <c r="C15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D15" t="s">
-        <v>81</v>
+      <c r="D15" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>69</v>
@@ -3841,16 +3868,16 @@
       <c r="C16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D16" t="s">
-        <v>83</v>
+      <c r="D16" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>69</v>
@@ -3858,16 +3885,16 @@
       <c r="C17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D17" t="s">
-        <v>84</v>
+      <c r="D17" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>69</v>
@@ -3875,16 +3902,16 @@
       <c r="C18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
-        <v>79</v>
+      <c r="D18" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>69</v>
@@ -3892,16 +3919,16 @@
       <c r="C19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D19" t="s">
-        <v>77</v>
+      <c r="D19" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>69</v>
@@ -3910,15 +3937,15 @@
         <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>69</v>
@@ -3930,12 +3957,12 @@
         <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>69</v>
@@ -3947,12 +3974,12 @@
         <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>69</v>
@@ -3964,12 +3991,12 @@
         <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>69</v>
@@ -3981,12 +4008,12 @@
         <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>69</v>
@@ -3998,12 +4025,12 @@
         <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>69</v>
@@ -4011,16 +4038,16 @@
       <c r="C26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>71</v>
+      <c r="D26" t="s">
+        <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>69</v>
@@ -4028,16 +4055,16 @@
       <c r="C27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>82</v>
+      <c r="D27" t="s">
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>69</v>
@@ -4045,16 +4072,16 @@
       <c r="C28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>86</v>
+      <c r="D28" t="s">
+        <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>69</v>
@@ -4062,16 +4089,16 @@
       <c r="C29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>85</v>
+      <c r="D29" t="s">
+        <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>69</v>
@@ -4079,16 +4106,16 @@
       <c r="C30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>80</v>
+      <c r="D30" t="s">
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>69</v>
@@ -4096,16 +4123,16 @@
       <c r="C31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>78</v>
+      <c r="D31" t="s">
+        <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>69</v>
@@ -4117,12 +4144,12 @@
         <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>69</v>
@@ -4134,12 +4161,12 @@
         <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>69</v>
@@ -4151,12 +4178,12 @@
         <v>86</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>69</v>
@@ -4168,12 +4195,12 @@
         <v>85</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>69</v>
@@ -4185,12 +4212,12 @@
         <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>69</v>
@@ -4202,12 +4229,12 @@
         <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>69</v>
@@ -4219,12 +4246,12 @@
         <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>69</v>
@@ -4236,12 +4263,12 @@
         <v>82</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>69</v>
@@ -4253,12 +4280,12 @@
         <v>86</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>69</v>
@@ -4270,12 +4297,12 @@
         <v>85</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>69</v>
@@ -4287,12 +4314,12 @@
         <v>80</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>69</v>
@@ -4304,12 +4331,12 @@
         <v>78</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>69</v>
@@ -4321,12 +4348,12 @@
         <v>71</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>69</v>
@@ -4338,12 +4365,12 @@
         <v>82</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>69</v>
@@ -4355,12 +4382,12 @@
         <v>86</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>69</v>
@@ -4372,12 +4399,12 @@
         <v>85</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>69</v>
@@ -4389,12 +4416,12 @@
         <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>69</v>
@@ -4406,12 +4433,12 @@
         <v>78</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>69</v>
@@ -4423,12 +4450,12 @@
         <v>71</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>69</v>
@@ -4440,12 +4467,12 @@
         <v>82</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>69</v>
@@ -4457,12 +4484,12 @@
         <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>69</v>
@@ -4474,12 +4501,12 @@
         <v>85</v>
       </c>
       <c r="E53" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>69</v>
@@ -4491,12 +4518,12 @@
         <v>80</v>
       </c>
       <c r="E54" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>69</v>
@@ -4508,12 +4535,12 @@
         <v>78</v>
       </c>
       <c r="E55" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>69</v>
@@ -4525,12 +4552,12 @@
         <v>71</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>69</v>
@@ -4542,12 +4569,12 @@
         <v>82</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>69</v>
@@ -4559,12 +4586,12 @@
         <v>86</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>69</v>
@@ -4576,12 +4603,12 @@
         <v>85</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>69</v>
@@ -4593,12 +4620,12 @@
         <v>80</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>69</v>
@@ -4610,12 +4637,12 @@
         <v>78</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>69</v>
@@ -4627,12 +4654,12 @@
         <v>71</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>69</v>
@@ -4644,12 +4671,12 @@
         <v>82</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>69</v>
@@ -4661,12 +4688,12 @@
         <v>86</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>69</v>
@@ -4678,12 +4705,12 @@
         <v>85</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>69</v>
@@ -4695,12 +4722,12 @@
         <v>80</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>69</v>
@@ -4712,12 +4739,12 @@
         <v>78</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>69</v>
@@ -4729,12 +4756,12 @@
         <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>69</v>
@@ -4746,12 +4773,12 @@
         <v>82</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>69</v>
@@ -4763,12 +4790,12 @@
         <v>86</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>69</v>
@@ -4780,12 +4807,12 @@
         <v>85</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>69</v>
@@ -4797,12 +4824,12 @@
         <v>80</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>69</v>
@@ -4814,12 +4841,12 @@
         <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>69</v>
@@ -4831,12 +4858,12 @@
         <v>71</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>69</v>
@@ -4848,12 +4875,12 @@
         <v>82</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>69</v>
@@ -4865,12 +4892,12 @@
         <v>86</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>69</v>
@@ -4882,12 +4909,12 @@
         <v>85</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>69</v>
@@ -4899,12 +4926,12 @@
         <v>80</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>69</v>
@@ -4916,12 +4943,12 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>69</v>
@@ -4933,12 +4960,12 @@
         <v>71</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>69</v>
@@ -4950,12 +4977,12 @@
         <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>69</v>
@@ -4967,12 +4994,12 @@
         <v>86</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>69</v>
@@ -4984,12 +5011,12 @@
         <v>85</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>69</v>
@@ -5001,12 +5028,12 @@
         <v>80</v>
       </c>
       <c r="E84" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>69</v>
@@ -5018,12 +5045,12 @@
         <v>78</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>69</v>
@@ -5035,12 +5062,12 @@
         <v>71</v>
       </c>
       <c r="E86" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>69</v>
@@ -5052,12 +5079,12 @@
         <v>82</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>69</v>
@@ -5069,12 +5096,12 @@
         <v>86</v>
       </c>
       <c r="E88" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>69</v>
@@ -5086,12 +5113,12 @@
         <v>85</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>69</v>
@@ -5103,12 +5130,12 @@
         <v>80</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>69</v>
@@ -5120,12 +5147,12 @@
         <v>78</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>69</v>
@@ -5137,12 +5164,12 @@
         <v>71</v>
       </c>
       <c r="E92" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>69</v>
@@ -5154,12 +5181,12 @@
         <v>82</v>
       </c>
       <c r="E93" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>69</v>
@@ -5171,12 +5198,12 @@
         <v>86</v>
       </c>
       <c r="E94" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>69</v>
@@ -5188,12 +5215,12 @@
         <v>85</v>
       </c>
       <c r="E95" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>69</v>
@@ -5205,12 +5232,12 @@
         <v>80</v>
       </c>
       <c r="E96" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>69</v>
@@ -5222,12 +5249,12 @@
         <v>78</v>
       </c>
       <c r="E97" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>69</v>
@@ -5239,12 +5266,12 @@
         <v>71</v>
       </c>
       <c r="E98" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>69</v>
@@ -5256,12 +5283,12 @@
         <v>82</v>
       </c>
       <c r="E99" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>69</v>
@@ -5273,12 +5300,12 @@
         <v>86</v>
       </c>
       <c r="E100" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>69</v>
@@ -5290,12 +5317,12 @@
         <v>85</v>
       </c>
       <c r="E101" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>69</v>
@@ -5307,12 +5334,12 @@
         <v>80</v>
       </c>
       <c r="E102" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>69</v>
@@ -5324,12 +5351,12 @@
         <v>78</v>
       </c>
       <c r="E103" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>69</v>
@@ -5341,12 +5368,12 @@
         <v>71</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>69</v>
@@ -5358,12 +5385,12 @@
         <v>82</v>
       </c>
       <c r="E105" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>69</v>
@@ -5375,12 +5402,12 @@
         <v>86</v>
       </c>
       <c r="E106" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>69</v>
@@ -5392,12 +5419,12 @@
         <v>85</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>69</v>
@@ -5409,12 +5436,12 @@
         <v>80</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>69</v>
@@ -5426,12 +5453,12 @@
         <v>78</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>69</v>
@@ -5443,12 +5470,12 @@
         <v>71</v>
       </c>
       <c r="E110" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>69</v>
@@ -5460,12 +5487,12 @@
         <v>82</v>
       </c>
       <c r="E111" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>69</v>
@@ -5477,12 +5504,12 @@
         <v>86</v>
       </c>
       <c r="E112" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>69</v>
@@ -5494,12 +5521,12 @@
         <v>85</v>
       </c>
       <c r="E113" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>69</v>
@@ -5511,12 +5538,12 @@
         <v>80</v>
       </c>
       <c r="E114" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>69</v>
@@ -5528,12 +5555,12 @@
         <v>78</v>
       </c>
       <c r="E115" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>69</v>
@@ -5545,12 +5572,12 @@
         <v>71</v>
       </c>
       <c r="E116" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>69</v>
@@ -5562,12 +5589,12 @@
         <v>82</v>
       </c>
       <c r="E117" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>69</v>
@@ -5579,12 +5606,12 @@
         <v>86</v>
       </c>
       <c r="E118" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>69</v>
@@ -5596,12 +5623,12 @@
         <v>85</v>
       </c>
       <c r="E119" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>69</v>
@@ -5613,12 +5640,12 @@
         <v>80</v>
       </c>
       <c r="E120" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>69</v>
@@ -5630,12 +5657,12 @@
         <v>78</v>
       </c>
       <c r="E121" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>69</v>
@@ -5647,12 +5674,12 @@
         <v>71</v>
       </c>
       <c r="E122" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>69</v>
@@ -5664,12 +5691,12 @@
         <v>82</v>
       </c>
       <c r="E123" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>69</v>
@@ -5681,12 +5708,12 @@
         <v>86</v>
       </c>
       <c r="E124" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>69</v>
@@ -5698,12 +5725,12 @@
         <v>85</v>
       </c>
       <c r="E125" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>69</v>
@@ -5715,12 +5742,12 @@
         <v>80</v>
       </c>
       <c r="E126" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>69</v>
@@ -5732,12 +5759,12 @@
         <v>78</v>
       </c>
       <c r="E127" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>69</v>
@@ -5749,12 +5776,12 @@
         <v>71</v>
       </c>
       <c r="E128" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>69</v>
@@ -5766,12 +5793,12 @@
         <v>82</v>
       </c>
       <c r="E129" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>69</v>
@@ -5783,12 +5810,12 @@
         <v>86</v>
       </c>
       <c r="E130" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>69</v>
@@ -5800,12 +5827,12 @@
         <v>85</v>
       </c>
       <c r="E131" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>69</v>
@@ -5817,12 +5844,12 @@
         <v>80</v>
       </c>
       <c r="E132" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>69</v>
@@ -5834,12 +5861,12 @@
         <v>78</v>
       </c>
       <c r="E133" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>69</v>
@@ -5851,12 +5878,12 @@
         <v>71</v>
       </c>
       <c r="E134" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>69</v>
@@ -5868,12 +5895,12 @@
         <v>82</v>
       </c>
       <c r="E135" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>69</v>
@@ -5885,12 +5912,12 @@
         <v>86</v>
       </c>
       <c r="E136" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>69</v>
@@ -5902,12 +5929,12 @@
         <v>85</v>
       </c>
       <c r="E137" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>69</v>
@@ -5919,12 +5946,12 @@
         <v>80</v>
       </c>
       <c r="E138" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>69</v>
@@ -5936,12 +5963,12 @@
         <v>78</v>
       </c>
       <c r="E139" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>69</v>
@@ -5953,12 +5980,12 @@
         <v>71</v>
       </c>
       <c r="E140" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>69</v>
@@ -5970,12 +5997,12 @@
         <v>82</v>
       </c>
       <c r="E141" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>69</v>
@@ -5987,12 +6014,12 @@
         <v>86</v>
       </c>
       <c r="E142" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>69</v>
@@ -6004,12 +6031,12 @@
         <v>85</v>
       </c>
       <c r="E143" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>69</v>
@@ -6021,12 +6048,12 @@
         <v>80</v>
       </c>
       <c r="E144" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>69</v>
@@ -6038,12 +6065,12 @@
         <v>78</v>
       </c>
       <c r="E145" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>69</v>
@@ -6055,12 +6082,12 @@
         <v>71</v>
       </c>
       <c r="E146" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>69</v>
@@ -6072,12 +6099,12 @@
         <v>82</v>
       </c>
       <c r="E147" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>69</v>
@@ -6089,12 +6116,12 @@
         <v>86</v>
       </c>
       <c r="E148" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>69</v>
@@ -6106,12 +6133,12 @@
         <v>85</v>
       </c>
       <c r="E149" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>69</v>
@@ -6123,12 +6150,12 @@
         <v>80</v>
       </c>
       <c r="E150" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>69</v>
@@ -6140,12 +6167,12 @@
         <v>78</v>
       </c>
       <c r="E151" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>69</v>
@@ -6157,12 +6184,12 @@
         <v>71</v>
       </c>
       <c r="E152" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>69</v>
@@ -6174,12 +6201,12 @@
         <v>82</v>
       </c>
       <c r="E153" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>69</v>
@@ -6191,12 +6218,12 @@
         <v>86</v>
       </c>
       <c r="E154" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>69</v>
@@ -6208,12 +6235,12 @@
         <v>85</v>
       </c>
       <c r="E155" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>69</v>
@@ -6225,12 +6252,12 @@
         <v>80</v>
       </c>
       <c r="E156" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>69</v>
@@ -6242,12 +6269,12 @@
         <v>78</v>
       </c>
       <c r="E157" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>69</v>
@@ -6259,12 +6286,12 @@
         <v>71</v>
       </c>
       <c r="E158" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>69</v>
@@ -6276,12 +6303,12 @@
         <v>82</v>
       </c>
       <c r="E159" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>69</v>
@@ -6293,12 +6320,12 @@
         <v>86</v>
       </c>
       <c r="E160" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>69</v>
@@ -6310,12 +6337,12 @@
         <v>85</v>
       </c>
       <c r="E161" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>69</v>
@@ -6327,12 +6354,12 @@
         <v>80</v>
       </c>
       <c r="E162" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>69</v>
@@ -6344,12 +6371,12 @@
         <v>78</v>
       </c>
       <c r="E163" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>69</v>
@@ -6361,12 +6388,12 @@
         <v>71</v>
       </c>
       <c r="E164" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>69</v>
@@ -6378,12 +6405,12 @@
         <v>82</v>
       </c>
       <c r="E165" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>69</v>
@@ -6395,12 +6422,12 @@
         <v>86</v>
       </c>
       <c r="E166" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>69</v>
@@ -6412,12 +6439,12 @@
         <v>85</v>
       </c>
       <c r="E167" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>69</v>
@@ -6429,12 +6456,12 @@
         <v>80</v>
       </c>
       <c r="E168" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>69</v>
@@ -6446,12 +6473,12 @@
         <v>78</v>
       </c>
       <c r="E169" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>69</v>
@@ -6463,12 +6490,12 @@
         <v>71</v>
       </c>
       <c r="E170" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>69</v>
@@ -6480,12 +6507,12 @@
         <v>82</v>
       </c>
       <c r="E171" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>69</v>
@@ -6497,12 +6524,12 @@
         <v>86</v>
       </c>
       <c r="E172" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>69</v>
@@ -6514,12 +6541,12 @@
         <v>85</v>
       </c>
       <c r="E173" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>69</v>
@@ -6531,12 +6558,12 @@
         <v>80</v>
       </c>
       <c r="E174" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>69</v>
@@ -6548,12 +6575,12 @@
         <v>78</v>
       </c>
       <c r="E175" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>69</v>
@@ -6565,12 +6592,12 @@
         <v>71</v>
       </c>
       <c r="E176" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>69</v>
@@ -6582,12 +6609,12 @@
         <v>82</v>
       </c>
       <c r="E177" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>69</v>
@@ -6599,12 +6626,12 @@
         <v>86</v>
       </c>
       <c r="E178" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>69</v>
@@ -6616,12 +6643,12 @@
         <v>85</v>
       </c>
       <c r="E179" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>69</v>
@@ -6633,12 +6660,12 @@
         <v>80</v>
       </c>
       <c r="E180" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>69</v>
@@ -6650,12 +6677,12 @@
         <v>78</v>
       </c>
       <c r="E181" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>69</v>
@@ -6667,12 +6694,12 @@
         <v>71</v>
       </c>
       <c r="E182" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>69</v>
@@ -6684,12 +6711,12 @@
         <v>82</v>
       </c>
       <c r="E183" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>69</v>
@@ -6701,12 +6728,12 @@
         <v>86</v>
       </c>
       <c r="E184" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>69</v>
@@ -6718,12 +6745,12 @@
         <v>85</v>
       </c>
       <c r="E185" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>69</v>
@@ -6735,12 +6762,12 @@
         <v>80</v>
       </c>
       <c r="E186" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>69</v>
@@ -6752,12 +6779,12 @@
         <v>78</v>
       </c>
       <c r="E187" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>69</v>
@@ -6769,12 +6796,12 @@
         <v>71</v>
       </c>
       <c r="E188" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>69</v>
@@ -6786,12 +6813,12 @@
         <v>82</v>
       </c>
       <c r="E189" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>69</v>
@@ -6803,12 +6830,12 @@
         <v>86</v>
       </c>
       <c r="E190" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>69</v>
@@ -6820,12 +6847,12 @@
         <v>85</v>
       </c>
       <c r="E191" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>69</v>
@@ -6837,12 +6864,12 @@
         <v>80</v>
       </c>
       <c r="E192" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>69</v>
@@ -6854,12 +6881,12 @@
         <v>78</v>
       </c>
       <c r="E193" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>69</v>
@@ -6871,12 +6898,12 @@
         <v>71</v>
       </c>
       <c r="E194" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>69</v>
@@ -6888,12 +6915,12 @@
         <v>82</v>
       </c>
       <c r="E195" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>69</v>
@@ -6905,12 +6932,12 @@
         <v>86</v>
       </c>
       <c r="E196" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>69</v>
@@ -6922,12 +6949,12 @@
         <v>85</v>
       </c>
       <c r="E197" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>69</v>
@@ -6939,12 +6966,12 @@
         <v>80</v>
       </c>
       <c r="E198" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>69</v>
@@ -6956,12 +6983,12 @@
         <v>78</v>
       </c>
       <c r="E199" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>69</v>
@@ -6973,12 +7000,12 @@
         <v>71</v>
       </c>
       <c r="E200" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>69</v>
@@ -6990,12 +7017,12 @@
         <v>82</v>
       </c>
       <c r="E201" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>69</v>
@@ -7007,12 +7034,12 @@
         <v>86</v>
       </c>
       <c r="E202" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>69</v>
@@ -7024,12 +7051,12 @@
         <v>85</v>
       </c>
       <c r="E203" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>69</v>
@@ -7041,12 +7068,12 @@
         <v>80</v>
       </c>
       <c r="E204" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>69</v>
@@ -7058,12 +7085,12 @@
         <v>78</v>
       </c>
       <c r="E205" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>69</v>
@@ -7075,12 +7102,12 @@
         <v>71</v>
       </c>
       <c r="E206" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>69</v>
@@ -7092,12 +7119,12 @@
         <v>82</v>
       </c>
       <c r="E207" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>69</v>
@@ -7109,12 +7136,12 @@
         <v>86</v>
       </c>
       <c r="E208" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>69</v>
@@ -7126,12 +7153,12 @@
         <v>85</v>
       </c>
       <c r="E209" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>69</v>
@@ -7143,12 +7170,12 @@
         <v>80</v>
       </c>
       <c r="E210" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>69</v>
@@ -7160,12 +7187,12 @@
         <v>78</v>
       </c>
       <c r="E211" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>69</v>
@@ -7177,12 +7204,12 @@
         <v>71</v>
       </c>
       <c r="E212" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>69</v>
@@ -7194,12 +7221,12 @@
         <v>82</v>
       </c>
       <c r="E213" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>69</v>
@@ -7211,12 +7238,12 @@
         <v>86</v>
       </c>
       <c r="E214" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>69</v>
@@ -7228,12 +7255,12 @@
         <v>85</v>
       </c>
       <c r="E215" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>69</v>
@@ -7245,12 +7272,12 @@
         <v>80</v>
       </c>
       <c r="E216" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>69</v>
@@ -7262,12 +7289,12 @@
         <v>78</v>
       </c>
       <c r="E217" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>69</v>
@@ -7275,16 +7302,16 @@
       <c r="C218" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D218" t="s">
-        <v>139</v>
+      <c r="D218" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E218" t="s">
-        <v>149</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>69</v>
@@ -7292,16 +7319,16 @@
       <c r="C219" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D219" t="s">
-        <v>81</v>
+      <c r="D219" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E219" t="s">
-        <v>149</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>69</v>
@@ -7309,16 +7336,16 @@
       <c r="C220" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D220" t="s">
-        <v>83</v>
+      <c r="D220" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="E220" t="s">
-        <v>149</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>69</v>
@@ -7326,16 +7353,16 @@
       <c r="C221" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D221" t="s">
-        <v>84</v>
+      <c r="D221" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="E221" t="s">
-        <v>149</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>69</v>
@@ -7343,16 +7370,16 @@
       <c r="C222" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D222" t="s">
-        <v>79</v>
+      <c r="D222" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E222" t="s">
-        <v>149</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>69</v>
@@ -7360,16 +7387,16 @@
       <c r="C223" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D223" t="s">
-        <v>77</v>
+      <c r="D223" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E223" t="s">
-        <v>149</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>69</v>
@@ -7378,15 +7405,15 @@
         <v>70</v>
       </c>
       <c r="D224" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E224" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>69</v>
@@ -7398,12 +7425,12 @@
         <v>81</v>
       </c>
       <c r="E225" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>69</v>
@@ -7415,12 +7442,12 @@
         <v>83</v>
       </c>
       <c r="E226" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>69</v>
@@ -7432,12 +7459,12 @@
         <v>84</v>
       </c>
       <c r="E227" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>69</v>
@@ -7449,12 +7476,12 @@
         <v>79</v>
       </c>
       <c r="E228" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>69</v>
@@ -7466,12 +7493,12 @@
         <v>77</v>
       </c>
       <c r="E229" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>69</v>
@@ -7480,15 +7507,15 @@
         <v>70</v>
       </c>
       <c r="D230" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E230" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>69</v>
@@ -7500,12 +7527,12 @@
         <v>81</v>
       </c>
       <c r="E231" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>69</v>
@@ -7517,12 +7544,12 @@
         <v>83</v>
       </c>
       <c r="E232" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>69</v>
@@ -7534,12 +7561,12 @@
         <v>84</v>
       </c>
       <c r="E233" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>69</v>
@@ -7551,12 +7578,12 @@
         <v>79</v>
       </c>
       <c r="E234" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>69</v>
@@ -7568,12 +7595,12 @@
         <v>77</v>
       </c>
       <c r="E235" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>69</v>
@@ -7582,15 +7609,15 @@
         <v>70</v>
       </c>
       <c r="D236" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E236" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>69</v>
@@ -7602,12 +7629,12 @@
         <v>81</v>
       </c>
       <c r="E237" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>69</v>
@@ -7619,12 +7646,12 @@
         <v>83</v>
       </c>
       <c r="E238" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>69</v>
@@ -7636,12 +7663,12 @@
         <v>84</v>
       </c>
       <c r="E239" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>69</v>
@@ -7653,12 +7680,12 @@
         <v>79</v>
       </c>
       <c r="E240" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>69</v>
@@ -7670,12 +7697,12 @@
         <v>77</v>
       </c>
       <c r="E241" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>69</v>
@@ -7684,15 +7711,15 @@
         <v>70</v>
       </c>
       <c r="D242" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E242" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>69</v>
@@ -7704,12 +7731,12 @@
         <v>81</v>
       </c>
       <c r="E243" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>69</v>
@@ -7721,12 +7748,12 @@
         <v>83</v>
       </c>
       <c r="E244" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>69</v>
@@ -7738,12 +7765,12 @@
         <v>84</v>
       </c>
       <c r="E245" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>69</v>
@@ -7755,12 +7782,12 @@
         <v>79</v>
       </c>
       <c r="E246" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>69</v>
@@ -7772,12 +7799,12 @@
         <v>77</v>
       </c>
       <c r="E247" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>69</v>
@@ -7786,15 +7813,15 @@
         <v>70</v>
       </c>
       <c r="D248" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E248" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>69</v>
@@ -7806,12 +7833,12 @@
         <v>81</v>
       </c>
       <c r="E249" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>69</v>
@@ -7823,12 +7850,12 @@
         <v>83</v>
       </c>
       <c r="E250" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>69</v>
@@ -7840,12 +7867,12 @@
         <v>84</v>
       </c>
       <c r="E251" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>69</v>
@@ -7857,12 +7884,12 @@
         <v>79</v>
       </c>
       <c r="E252" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>69</v>
@@ -7874,12 +7901,12 @@
         <v>77</v>
       </c>
       <c r="E253" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>69</v>
@@ -7888,15 +7915,15 @@
         <v>70</v>
       </c>
       <c r="D254" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E254" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>69</v>
@@ -7908,12 +7935,12 @@
         <v>81</v>
       </c>
       <c r="E255" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>69</v>
@@ -7925,12 +7952,12 @@
         <v>83</v>
       </c>
       <c r="E256" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>69</v>
@@ -7942,12 +7969,12 @@
         <v>84</v>
       </c>
       <c r="E257" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>69</v>
@@ -7959,12 +7986,12 @@
         <v>79</v>
       </c>
       <c r="E258" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>69</v>
@@ -7976,12 +8003,12 @@
         <v>77</v>
       </c>
       <c r="E259" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>69</v>
@@ -7990,15 +8017,15 @@
         <v>70</v>
       </c>
       <c r="D260" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E260" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>69</v>
@@ -8010,12 +8037,12 @@
         <v>81</v>
       </c>
       <c r="E261" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>69</v>
@@ -8027,12 +8054,12 @@
         <v>83</v>
       </c>
       <c r="E262" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>69</v>
@@ -8044,12 +8071,12 @@
         <v>84</v>
       </c>
       <c r="E263" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>69</v>
@@ -8061,12 +8088,12 @@
         <v>79</v>
       </c>
       <c r="E264" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>69</v>
@@ -8078,12 +8105,12 @@
         <v>77</v>
       </c>
       <c r="E265" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>69</v>
@@ -8092,15 +8119,15 @@
         <v>70</v>
       </c>
       <c r="D266" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E266" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>69</v>
@@ -8112,12 +8139,12 @@
         <v>81</v>
       </c>
       <c r="E267" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>69</v>
@@ -8129,12 +8156,12 @@
         <v>83</v>
       </c>
       <c r="E268" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>69</v>
@@ -8146,12 +8173,12 @@
         <v>84</v>
       </c>
       <c r="E269" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>69</v>
@@ -8163,12 +8190,12 @@
         <v>79</v>
       </c>
       <c r="E270" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>69</v>
@@ -8180,13 +8207,422 @@
         <v>77</v>
       </c>
       <c r="E271" t="s">
-        <v>158</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A272" t="s">
+        <v>146</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D272" t="s">
+        <v>138</v>
+      </c>
+      <c r="E272" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A273" t="s">
+        <v>146</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D273" t="s">
+        <v>81</v>
+      </c>
+      <c r="E273" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A274" t="s">
+        <v>146</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D274" t="s">
+        <v>83</v>
+      </c>
+      <c r="E274" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A275" t="s">
+        <v>146</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D275" t="s">
+        <v>84</v>
+      </c>
+      <c r="E275" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A276" t="s">
+        <v>146</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D276" t="s">
+        <v>79</v>
+      </c>
+      <c r="E276" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A277" t="s">
+        <v>146</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D277" t="s">
+        <v>77</v>
+      </c>
+      <c r="E277" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A278" t="s">
+        <v>147</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D278" t="s">
+        <v>138</v>
+      </c>
+      <c r="E278" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A279" t="s">
+        <v>147</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D279" t="s">
+        <v>81</v>
+      </c>
+      <c r="E279" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A280" t="s">
+        <v>147</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D280" t="s">
+        <v>83</v>
+      </c>
+      <c r="E280" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A281" t="s">
+        <v>147</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D281" t="s">
+        <v>84</v>
+      </c>
+      <c r="E281" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A282" t="s">
+        <v>147</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D282" t="s">
+        <v>79</v>
+      </c>
+      <c r="E282" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A283" t="s">
+        <v>147</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D283" t="s">
+        <v>77</v>
+      </c>
+      <c r="E283" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A284" t="s">
+        <v>164</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D284" t="s">
+        <v>138</v>
+      </c>
+      <c r="E284" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A285" t="s">
+        <v>164</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D285" t="s">
+        <v>81</v>
+      </c>
+      <c r="E285" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A286" t="s">
+        <v>164</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D286" t="s">
+        <v>83</v>
+      </c>
+      <c r="E286" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A287" t="s">
+        <v>164</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D287" t="s">
+        <v>84</v>
+      </c>
+      <c r="E287" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A288" t="s">
+        <v>164</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D288" t="s">
+        <v>79</v>
+      </c>
+      <c r="E288" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A289" t="s">
+        <v>164</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D289" t="s">
+        <v>77</v>
+      </c>
+      <c r="E289" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A290" t="s">
+        <v>165</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D290" t="s">
+        <v>138</v>
+      </c>
+      <c r="E290" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A291" t="s">
+        <v>165</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D291" t="s">
+        <v>81</v>
+      </c>
+      <c r="E291" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A292" t="s">
+        <v>165</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D292" t="s">
+        <v>83</v>
+      </c>
+      <c r="E292" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A293" t="s">
+        <v>165</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D293" t="s">
+        <v>84</v>
+      </c>
+      <c r="E293" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A294" t="s">
+        <v>165</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D294" t="s">
+        <v>79</v>
+      </c>
+      <c r="E294" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A295" t="s">
+        <v>165</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D295" t="s">
+        <v>77</v>
+      </c>
+      <c r="E295" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E217"/>
+  <autoFilter ref="A1:E223"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8206,10 +8642,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -8217,7 +8653,7 @@
         <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -8225,7 +8661,7 @@
         <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -8233,7 +8669,7 @@
         <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -8241,7 +8677,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -8249,15 +8685,15 @@
         <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -8265,7 +8701,7 @@
         <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -8273,7 +8709,7 @@
         <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -8281,7 +8717,7 @@
         <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -8289,7 +8725,7 @@
         <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -8297,15 +8733,15 @@
         <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -8313,7 +8749,7 @@
         <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -8321,7 +8757,7 @@
         <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -8329,7 +8765,7 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -8337,7 +8773,7 @@
         <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -8345,15 +8781,15 @@
         <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -8361,7 +8797,7 @@
         <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -8369,7 +8805,7 @@
         <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -8377,7 +8813,7 @@
         <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -8385,7 +8821,7 @@
         <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -8393,15 +8829,15 @@
         <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -8409,7 +8845,7 @@
         <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -8417,7 +8853,7 @@
         <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -8425,7 +8861,7 @@
         <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -8433,7 +8869,7 @@
         <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -8441,15 +8877,15 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -8457,7 +8893,7 @@
         <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -8465,7 +8901,7 @@
         <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -8473,7 +8909,7 @@
         <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -8481,7 +8917,7 @@
         <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -8489,15 +8925,15 @@
         <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -8505,7 +8941,7 @@
         <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -8513,7 +8949,7 @@
         <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -8521,7 +8957,7 @@
         <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -8529,7 +8965,7 @@
         <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -8537,15 +8973,15 @@
         <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -8553,7 +8989,7 @@
         <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -8561,7 +8997,7 @@
         <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -8569,7 +9005,7 @@
         <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -8577,7 +9013,7 @@
         <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -8585,15 +9021,15 @@
         <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -8601,7 +9037,7 @@
         <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -8609,7 +9045,7 @@
         <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -8617,7 +9053,7 @@
         <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -8625,7 +9061,7 @@
         <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -8633,12 +9069,12 @@
         <v>77</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B55" t="s">
         <v>68</v>
@@ -8686,10 +9122,10 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -8697,7 +9133,7 @@
         <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -8705,7 +9141,7 @@
         <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -8713,7 +9149,7 @@
         <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -8721,7 +9157,7 @@
         <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
@@ -8729,7 +9165,7 @@
         <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
